--- a/terminal-api/testspec/testspec.xlsx
+++ b/terminal-api/testspec/testspec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A6BE7-8785-4264-9FF3-C63024698C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBEA621-66AD-46C3-8169-6CA74E1C0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="243">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -1025,13 +1025,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>保留</t>
-    <rPh sb="0" eb="2">
-      <t>ホリュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Transaction Screen" という謎の表示がでている</t>
     <rPh sb="24" eb="25">
       <t>ナゾ</t>
@@ -1824,16 +1817,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>再現不可</t>
-    <rPh sb="0" eb="2">
-      <t>サイゲン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http 要求を送信する（edy）</t>
     <rPh sb="5" eb="7">
       <t>ヨウキュウ</t>
@@ -1862,13 +1845,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>存在しない？</t>
-    <rPh sb="0" eb="2">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http 要求を送信する（nanaco）</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2699,6 +2675,32 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発生しなかった</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QuicPay は処理未了後の特別な手続きはないらしい。仕様書に書いてた。</t>
+    <rPh sb="9" eb="14">
+      <t>ショリミリョウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3109,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B310" sqref="B310"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3183,7 +3185,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -3304,7 +3306,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -3327,7 +3329,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F11" s="2">
         <v>45926</v>
@@ -3701,7 +3703,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F29" s="2">
         <v>45919</v>
@@ -3724,7 +3726,7 @@
         <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F30" s="2">
         <v>45919</v>
@@ -4069,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>18</v>
@@ -4092,7 +4094,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>18</v>
@@ -4115,13 +4117,13 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" s="2">
         <v>45919</v>
@@ -4138,13 +4140,13 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" s="2">
         <v>45919</v>
@@ -4161,13 +4163,13 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" s="2">
         <v>45919</v>
@@ -4184,13 +4186,13 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F52" s="2">
         <v>45919</v>
@@ -4207,13 +4209,13 @@
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F53" s="2">
         <v>45919</v>
@@ -4230,13 +4232,13 @@
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F54" s="2">
         <v>45919</v>
@@ -4253,16 +4255,16 @@
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>94</v>
+        <v>19</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F55" s="2">
-        <v>45919</v>
+        <v>45930</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
@@ -4276,44 +4278,46 @@
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45919</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="F57" s="2"/>
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45938</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
@@ -4323,13 +4327,13 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2">
         <v>45919</v>
@@ -4346,13 +4350,13 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F60" s="2">
         <v>45919</v>
@@ -4369,13 +4373,13 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F61" s="2">
         <v>45919</v>
@@ -4392,13 +4396,13 @@
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2">
         <v>45919</v>
@@ -4415,13 +4419,13 @@
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F63" s="2">
         <v>45919</v>
@@ -4438,13 +4442,13 @@
         <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2">
         <v>45919</v>
@@ -4461,13 +4465,13 @@
         <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2">
         <v>45919</v>
@@ -4484,13 +4488,13 @@
         <v>16</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F66" s="2">
         <v>45919</v>
@@ -4507,44 +4511,44 @@
         <v>16</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45919</v>
+      </c>
       <c r="G67" s="1" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F68" s="2"/>
+      <c r="G68" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
@@ -4554,16 +4558,16 @@
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F70" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
@@ -4577,16 +4581,16 @@
         <v>16</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>13</v>
@@ -4600,16 +4604,16 @@
         <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
@@ -4623,16 +4627,16 @@
         <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>13</v>
@@ -4646,16 +4650,16 @@
         <v>16</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>13</v>
@@ -4669,16 +4673,16 @@
         <v>16</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>13</v>
@@ -4692,16 +4696,16 @@
         <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>13</v>
@@ -4715,16 +4719,16 @@
         <v>16</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>13</v>
@@ -4738,319 +4742,324 @@
         <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45930</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="F84" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45938</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F81" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F83" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F85" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F86" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F87" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F88" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F89" s="2">
-        <v>45930</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F90" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F93" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F94" s="2">
         <v>45919</v>
@@ -5059,7 +5068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -5067,13 +5076,13 @@
         <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F95" s="2">
         <v>45919</v>
@@ -5082,7 +5091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
         <v>2</v>
       </c>
@@ -5090,13 +5099,13 @@
         <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2">
         <v>45919</v>
@@ -5113,13 +5122,13 @@
         <v>16</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F97" s="2">
         <v>45919</v>
@@ -5136,13 +5145,13 @@
         <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F98" s="2">
         <v>45919</v>
@@ -5159,13 +5168,13 @@
         <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F99" s="2">
         <v>45919</v>
@@ -5182,13 +5191,13 @@
         <v>16</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2">
         <v>45919</v>
@@ -5205,16 +5214,16 @@
         <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>233</v>
+      <c r="E101" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F101" s="2">
-        <v>45930</v>
+        <v>45919</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>13</v>
@@ -5228,16 +5237,16 @@
         <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>94</v>
+        <v>19</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F102" s="2">
-        <v>45919</v>
+        <v>45930</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>13</v>
@@ -5251,13 +5260,13 @@
         <v>16</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F103" s="2">
         <v>45919</v>
@@ -5267,30 +5276,30 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="F104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F105" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
@@ -5300,16 +5309,16 @@
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F106" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>13</v>
@@ -5323,16 +5332,16 @@
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F107" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>13</v>
@@ -5346,16 +5355,16 @@
         <v>16</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F108" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>13</v>
@@ -5369,16 +5378,16 @@
         <v>16</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F109" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>13</v>
@@ -5392,16 +5401,16 @@
         <v>16</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F110" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>13</v>
@@ -5415,16 +5424,16 @@
         <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>13</v>
@@ -5438,16 +5447,16 @@
         <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>13</v>
@@ -5461,16 +5470,16 @@
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F113" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>13</v>
@@ -5484,74 +5493,88 @@
         <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>121</v>
+      <c r="E114" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F114" s="2">
-        <v>45912</v>
+        <v>45930</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="F115" s="2"/>
+      <c r="A115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F115" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="6"/>
+      <c r="A116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F117" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F118" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>13</v>
@@ -5562,19 +5585,19 @@
         <v>2</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F119" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>13</v>
@@ -5585,51 +5608,65 @@
         <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F120" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="4"/>
+      <c r="A121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F121" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="F122" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>13</v>
@@ -5640,19 +5677,19 @@
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F123" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>13</v>
@@ -5663,19 +5700,19 @@
         <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="F124" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>13</v>
@@ -5686,19 +5723,19 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F125" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>13</v>
@@ -5709,19 +5746,19 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="F126" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>13</v>
@@ -5732,85 +5769,51 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="F127" s="2">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F128" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F129" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F130" s="2">
         <v>45898</v>
@@ -5824,16 +5827,16 @@
         <v>2</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F131" s="2">
         <v>45898</v>
@@ -5847,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>12</v>
@@ -5856,7 +5859,13 @@
         <v>19</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="F132" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5864,7 +5873,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>12</v>
@@ -5873,31 +5882,23 @@
         <v>19</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
+      </c>
+      <c r="F133" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F134" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
@@ -5910,10 +5911,10 @@
         <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F135" s="2">
         <v>45898</v>
@@ -5933,10 +5934,10 @@
         <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F136" s="2">
         <v>45898</v>
@@ -5959,7 +5960,7 @@
         <v>19</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F137" s="2">
         <v>45898</v>
@@ -5982,10 +5983,10 @@
         <v>19</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F138" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>13</v>
@@ -6005,17 +6006,37 @@
         <v>19</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F139" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="F140" s="2"/>
+      <c r="A140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F140" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
@@ -6027,13 +6048,41 @@
       <c r="C141" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E141" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F141" s="2"/>
+      <c r="D141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="F142" s="2"/>
+      <c r="A142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F142" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
@@ -6043,15 +6092,20 @@
         <v>59</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F143" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="F143" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
@@ -6061,13 +6115,13 @@
         <v>59</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2">
         <v>45898</v>
@@ -6084,19 +6138,13 @@
         <v>59</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F145" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6107,19 +6155,13 @@
         <v>59</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F146" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -6130,18 +6172,43 @@
         <v>59</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F147" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="F147" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="F148" s="2"/>
+      <c r="A148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F148" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1" t="s">
@@ -6151,23 +6218,43 @@
         <v>59</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="F149" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="F150" s="2"/>
+      <c r="A150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F150" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1" t="s">
@@ -6177,13 +6264,13 @@
         <v>59</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F151" s="2">
         <v>45911</v>
@@ -6200,13 +6287,13 @@
         <v>59</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F152" s="2">
         <v>45911</v>
@@ -6216,27 +6303,7 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F153" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
@@ -6246,43 +6313,15 @@
         <v>59</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F154" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F155" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1" t="s">
@@ -6292,21 +6331,38 @@
         <v>59</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="1" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="F157" s="2"/>
+      <c r="A157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F157" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
@@ -6316,23 +6372,43 @@
         <v>59</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="F158" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="F159" s="2"/>
+      <c r="A159" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F159" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1" t="s">
@@ -6342,45 +6418,20 @@
         <v>59</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F160" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F161" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
@@ -6388,45 +6439,25 @@
         <v>59</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="F162" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F163" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+    <row r="163" spans="1:7">
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
@@ -6434,13 +6465,13 @@
         <v>59</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2">
         <v>45911</v>
@@ -6449,7 +6480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
@@ -6457,23 +6488,45 @@
         <v>59</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F165" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="F165" s="2">
+        <v>45911</v>
+      </c>
       <c r="G165" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F166" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
@@ -6481,22 +6534,22 @@
         <v>59</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -6504,22 +6557,22 @@
         <v>59</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F168" s="2">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
         <v>2</v>
       </c>
@@ -6527,46 +6580,23 @@
         <v>59</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F169" s="2">
-        <v>45919</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F169" s="2"/>
       <c r="G169" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F170" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" s="8"/>
-    </row>
-    <row r="171" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
         <v>2</v>
       </c>
@@ -6574,13 +6604,13 @@
         <v>59</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="F171" s="2">
         <v>45919</v>
@@ -6589,33 +6619,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B172" s="1" t="s">
+    <row r="172" spans="1:7">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F172" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="C173" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F173" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
@@ -6623,22 +6653,22 @@
         <v>59</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F174" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
@@ -6646,22 +6676,22 @@
         <v>59</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F175" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>2</v>
       </c>
@@ -6669,22 +6699,22 @@
         <v>59</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F176" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -6692,22 +6722,22 @@
         <v>59</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F177" s="2">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -6715,45 +6745,23 @@
         <v>59</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F178" s="2">
-        <v>45912</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F178" s="2"/>
       <c r="G178" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F179" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
         <v>2</v>
       </c>
@@ -6761,22 +6769,22 @@
         <v>59</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F180" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
         <v>2</v>
       </c>
@@ -6784,22 +6792,22 @@
         <v>59</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="F181" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -6807,22 +6815,22 @@
         <v>59</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F182" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
         <v>2</v>
       </c>
@@ -6830,17 +6838,23 @@
         <v>59</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="F183" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" s="8"/>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -6848,193 +6862,226 @@
         <v>59</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F184" s="2"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="F185" s="2"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="F184" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F185" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F187" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F188" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="F189" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F190" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F191" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F192" s="2">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="4"/>
+      <c r="A193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F193" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F194" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>13</v>
@@ -7045,19 +7092,19 @@
         <v>2</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F195" s="2">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>13</v>
@@ -7068,111 +7115,67 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F196" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F197" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F198" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F199" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="4"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F200" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>13</v>
@@ -7183,7 +7186,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>12</v>
@@ -7192,10 +7195,10 @@
         <v>18</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F201" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>13</v>
@@ -7206,20 +7209,22 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F202" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="F202" s="2">
+        <v>45911</v>
+      </c>
       <c r="G202" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -7227,20 +7232,22 @@
         <v>2</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F203" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="F203" s="2">
+        <v>45911</v>
+      </c>
       <c r="G203" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -7248,19 +7255,19 @@
         <v>2</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F204" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>13</v>
@@ -7271,62 +7278,48 @@
         <v>2</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F205" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F206" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="4"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="F207" s="2">
         <v>45917</v>
@@ -7336,23 +7329,57 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="F208" s="2"/>
+      <c r="A208" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F208" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="4"/>
+      <c r="A209" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F209" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>12</v>
@@ -7361,7 +7388,7 @@
         <v>18</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F210" s="2">
         <v>45917</v>
@@ -7375,16 +7402,16 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F211" s="2">
         <v>45917</v>
@@ -7394,23 +7421,43 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="F212" s="2"/>
+      <c r="A212" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F212" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F213" s="2">
         <v>45917</v>
@@ -7424,16 +7471,16 @@
         <v>2</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F214" s="2">
         <v>45917</v>
@@ -7447,19 +7494,19 @@
         <v>2</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F215" s="2">
-        <v>45917</v>
+        <v>45938</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>13</v>
@@ -7470,57 +7517,111 @@
         <v>2</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F216" s="2">
+        <v>45938</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F217" s="2">
         <v>45917</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="F217" s="2"/>
+      <c r="G217" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="4"/>
+      <c r="A218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F218" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="F219" s="2"/>
+      <c r="A219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F219" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="F220" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>13</v>
@@ -7530,56 +7631,52 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F222" s="2"/>
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="4"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F223" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="F223" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F224" s="2">
         <v>45917</v>
@@ -7589,49 +7686,49 @@
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E225" s="1" t="s">
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F225" s="2">
+      <c r="C226" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F226" s="2">
         <v>45917</v>
       </c>
-      <c r="G225" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="F226" s="2"/>
+      <c r="G226" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F227" s="2">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>13</v>
@@ -7642,190 +7739,188 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F228" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F229" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F233" s="2">
         <v>45919</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="F229" s="2"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F230" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F231" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F232" s="2"/>
-      <c r="G232" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="F233" s="2"/>
+      <c r="G233" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F234" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F235" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="F236" s="2"/>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="F237" s="2"/>
+      <c r="F237" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="F238" s="2"/>
+      <c r="A238" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F238" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F239" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F240" s="2">
         <v>45919</v>
@@ -7839,16 +7934,16 @@
         <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F241" s="2">
         <v>45919</v>
@@ -7861,81 +7956,95 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="F243" s="2"/>
+      <c r="A243" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F243" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="4"/>
+      <c r="A244" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F244" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F245" s="2">
-        <v>45924</v>
+        <v>45938</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F246" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="F247" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>13</v>
@@ -7946,111 +8055,51 @@
         <v>2</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="F248" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F249" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="A250" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F250" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="A251" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F251" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="F252" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>13</v>
@@ -8061,19 +8110,19 @@
         <v>2</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F253" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>13</v>
@@ -8084,99 +8133,45 @@
         <v>2</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="F254" s="2">
-        <v>45924</v>
+        <v>45919</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F255" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E256" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F256" s="2">
-        <v>45925</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E257" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F257" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="4"/>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>12</v>
@@ -8184,11 +8179,11 @@
       <c r="D258" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E258" s="10" t="s">
-        <v>194</v>
+      <c r="E258" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="F258" s="2">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>13</v>
@@ -8199,321 +8194,341 @@
         <v>2</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E259" s="10" t="s">
-        <v>195</v>
-      </c>
       <c r="F259" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F260" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F261" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F262" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F263" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F264" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F265" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F266" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F267" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F268" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F269" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F270" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F271" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E272" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F272" s="2">
         <v>45926</v>
       </c>
-      <c r="G259" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="F260" s="2"/>
-    </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E261" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F261" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G261" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E262" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F262" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G262" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B263" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D263" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E263" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F263" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G263" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B264" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C264" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E264" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F264" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G264" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D265" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E265" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F265" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G265" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D266" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E266" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F266" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G266" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B267" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C267" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D267" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E267" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F267" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G267" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B268" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E268" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F268" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G268" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="F269" s="2"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C270" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E270" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F270" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G270" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B271" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C271" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D271" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E271" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F271" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G271" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B272" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D272" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E272" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F272" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G272" s="11" t="s">
+      <c r="G272" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B273" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C273" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E273" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F273" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G273" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E274" s="11" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="F274" s="12">
         <v>45926</v>
@@ -8527,16 +8542,16 @@
         <v>2</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E275" s="11" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="F275" s="12">
         <v>45926</v>
@@ -8546,14 +8561,34 @@
       </c>
     </row>
     <row r="276" spans="1:7">
-      <c r="F276" s="2"/>
+      <c r="A276" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F276" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G276" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>12</v>
@@ -8562,7 +8597,7 @@
         <v>18</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F277" s="12">
         <v>45926</v>
@@ -8576,7 +8611,7 @@
         <v>2</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>12</v>
@@ -8585,7 +8620,7 @@
         <v>18</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F278" s="12">
         <v>45926</v>
@@ -8599,7 +8634,7 @@
         <v>2</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>12</v>
@@ -8608,7 +8643,7 @@
         <v>18</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F279" s="12">
         <v>45926</v>
@@ -8622,7 +8657,7 @@
         <v>2</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>12</v>
@@ -8631,7 +8666,7 @@
         <v>18</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F280" s="12">
         <v>45926</v>
@@ -8645,16 +8680,16 @@
         <v>2</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F281" s="12">
         <v>45926</v>
@@ -8664,43 +8699,23 @@
       </c>
     </row>
     <row r="282" spans="1:7">
-      <c r="A282" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B282" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E282" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F282" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G282" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F283" s="12">
         <v>45926</v>
@@ -8714,16 +8729,16 @@
         <v>2</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E284" s="11" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F284" s="12">
         <v>45926</v>
@@ -8733,377 +8748,656 @@
       </c>
     </row>
     <row r="285" spans="1:7">
-      <c r="F285" s="2"/>
+      <c r="A285" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F285" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G285" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B286" s="1" t="s">
+      <c r="A286" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F286" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G286" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F287" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G287" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F288" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G288" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F290" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G290" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F291" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G291" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F292" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F293" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G293" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F294" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G294" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F295" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G295" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F296" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G296" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C297" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F297" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G297" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F286" s="2"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C287" s="1" t="s">
+      <c r="D302" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F304" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E305" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F305" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E306" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F287" s="2"/>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F288" s="2"/>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F289" s="2"/>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F290" s="2"/>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F291" s="2">
+      <c r="F306" s="2">
         <v>45926</v>
       </c>
-      <c r="G291" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E292" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F292" s="2">
+      <c r="G306" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F307" s="2">
         <v>45926</v>
       </c>
-      <c r="G292" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F293" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E294" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F294" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B296" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C296" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D296" s="13"/>
-      <c r="E296" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="F296" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G296" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B298" s="11" t="s">
+      <c r="G307" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B309" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D309" s="13"/>
+      <c r="E309" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F309" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G309" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E311" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F311" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G311" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E312" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F312" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G312" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E313" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C298" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D298" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E298" s="11" t="s">
+      <c r="F313" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G313" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E314" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F298" s="12">
+      <c r="F314" s="12">
         <v>45922</v>
       </c>
-      <c r="G298" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D299" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E299" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F299" s="12">
+      <c r="G314" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E315" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F315" s="12">
         <v>45922</v>
       </c>
-      <c r="G299" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B300" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C300" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D300" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E300" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F300" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G300" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B301" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C301" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D301" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E301" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F301" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G301" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C302" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D302" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E302" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F302" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G302" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="11" t="s">
+      <c r="G315" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E318" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B305" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C305" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D305" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E305" s="11" t="s">
+      <c r="F318" s="12">
+        <v>45931</v>
+      </c>
+      <c r="G318" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C319" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F319" s="12">
+        <v>45931</v>
+      </c>
+      <c r="G319" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C320" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F305" s="12">
-        <v>45931</v>
-      </c>
-      <c r="G305" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B306" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C306" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D306" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E306" s="11" t="s">
+      <c r="D320" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E320" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F306" s="12">
-        <v>45931</v>
-      </c>
-      <c r="G306" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="B307" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C307" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D307" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E307" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F307" s="12">
+      <c r="F320" s="12">
         <v>45937</v>
       </c>
-      <c r="G307" s="11" t="s">
+      <c r="G320" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9138,7 +9432,7 @@
         <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -9146,7 +9440,7 @@
         <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9154,7 +9448,7 @@
         <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9162,7 +9456,7 @@
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9170,7 +9464,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9178,7 +9472,7 @@
         <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9186,7 +9480,7 @@
         <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9194,7 +9488,7 @@
         <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9202,7 +9496,7 @@
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9210,28 +9504,28 @@
         <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
         <v>85</v>
-      </c>
-      <c r="J11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="D12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="D13" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -9239,12 +9533,12 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="D14" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -9252,12 +9546,12 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="D15" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -9265,12 +9559,12 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="D16" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -9278,12 +9572,12 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -9291,55 +9585,55 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/terminal-api/testspec/testspec.xlsx
+++ b/terminal-api/testspec/testspec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBEA621-66AD-46C3-8169-6CA74E1C0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F924E5-FA7A-4C34-99B7-B19931904E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testspec" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="244">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -2701,6 +2701,31 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再起動後、金額表示欄がホーム画面に意図せず表示される</t>
+    <rPh sb="0" eb="4">
+      <t>サイキドウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3113,7 +3138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
@@ -9409,10 +9434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9426,7 +9451,7 @@
       </c>
       <c r="B1" s="3">
         <f>COUNTA(D1:D30)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>69</v>
@@ -9636,6 +9661,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/terminal-api/testspec/testspec.xlsx
+++ b/terminal-api/testspec/testspec.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F924E5-FA7A-4C34-99B7-B19931904E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63A94D-0C75-4542-8E66-7F8B99B2EE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testspec" sheetId="1" r:id="rId1"/>
     <sheet name="不具合" sheetId="2" r:id="rId2"/>
+    <sheet name="バッテリ計算" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="287">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -2726,6 +2727,281 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">秒数 = 10 * 60 * 60 = 36000 </t>
+    <rPh sb="0" eb="2">
+      <t>ビョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最低１０時間もってほしい。100% の状態から</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1% 現象に 36000 / 100 = 360 秒</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この範囲であれば 10時間持つとみなせる。</t>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>試験内容： 無給電の状態で、1% 現象するのに6分以上かかること。</t>
+    <rPh sb="0" eb="4">
+      <t>シケンナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キュウデン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ブイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他条件：</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- 社内 WIFI 接続</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- 計測に使う /v1/terminal へのアクセス以外は行わない。</t>
+    <rPh sb="2" eb="4">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- /v1/terminal へのアクセスは1分ごとに行う。</t>
+    <rPh sb="23" eb="24">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- Terminal API 以外のアプリは起動しない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025-10-20 11:05:04　開始</t>
+    <rPh sb="20" eb="22">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[2025-10-20 11:19:08] battery: 99 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:20:08] battery: 99 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:21:08] battery: 99 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:22:08] battery: 99 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:23:08] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:24:09] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:25:09] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:26:09] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:27:09] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:28:10] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:29:10] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:30:10] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:31:10] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:32:10] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:33:11] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:34:11] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:35:11] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:36:11] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:37:11] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:38:12] battery: 98 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:39:12] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:40:12] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:41:13] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>【結果】</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>およそ15分で1% の減少</t>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100% でどれくらい持つ？</t>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>15 分 * 100 = 1500分 = 25時間</t>
+    <rPh sb="3" eb="4">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>継続運用</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリ起動中待機</t>
+    <rPh sb="3" eb="6">
+      <t>キドウチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アプリを稼働させたまま放置する</t>
+    <rPh sb="4" eb="6">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッテリー満タンの状態から最低10時間稼働すること</t>
+    <rPh sb="5" eb="6">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2734,7 +3010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2776,8 +3052,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2805,6 +3089,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2836,7 +3126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2851,6 +3141,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3136,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -3149,7 +3442,8 @@
     <col min="3" max="3" width="34.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -3181,42 +3475,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="F3" s="2">
-        <v>45926</v>
+        <v>45950</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2">
         <v>45926</v>
@@ -3225,29 +3522,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>2</v>
@@ -3256,16 +3530,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2">
-        <v>45895</v>
+        <v>45926</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
@@ -3285,7 +3559,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
         <v>45895</v>
@@ -3308,7 +3582,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2">
         <v>45895</v>
@@ -3331,7 +3605,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
         <v>45895</v>
@@ -3354,10 +3628,10 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2">
-        <v>45926</v>
+        <v>45895</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
@@ -3368,16 +3642,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="F12" s="2">
         <v>45895</v>
@@ -3391,19 +3665,19 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="F13" s="2">
-        <v>45895</v>
+        <v>45926</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -3417,13 +3691,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
         <v>45895</v>
@@ -3440,16 +3714,16 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
@@ -3469,112 +3743,112 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
+        <v>45895</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2">
         <v>45896</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45896</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F20" s="2">
         <v>45895</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45895</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="F20" s="2"/>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
@@ -3590,7 +3864,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F23" s="2">
         <v>45896</v>
@@ -3613,7 +3887,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2">
         <v>45896</v>
@@ -3636,10 +3910,10 @@
         <v>19</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F25" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -3659,10 +3933,10 @@
         <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -3682,7 +3956,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2">
         <v>45897</v>
@@ -3705,7 +3979,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F28" s="2">
         <v>45897</v>
@@ -3728,10 +4002,10 @@
         <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
@@ -3751,17 +4025,37 @@
         <v>19</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="F30" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="2">
         <v>45919</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="F31" s="2"/>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
@@ -3771,43 +4065,23 @@
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F32" s="2">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="2">
-        <v>45896</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
@@ -3823,10 +4097,10 @@
         <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -3846,10 +4120,10 @@
         <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -3869,7 +4143,7 @@
         <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F36" s="2">
         <v>45897</v>
@@ -3889,10 +4163,10 @@
         <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F37" s="2">
         <v>45897</v>
@@ -3912,10 +4186,10 @@
         <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" s="2">
         <v>45897</v>
@@ -3938,7 +4212,7 @@
         <v>19</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2">
         <v>45897</v>
@@ -3961,7 +4235,7 @@
         <v>19</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F40" s="2">
         <v>45897</v>
@@ -3984,7 +4258,7 @@
         <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2">
         <v>45897</v>
@@ -4007,7 +4281,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2">
         <v>45897</v>
@@ -4030,7 +4304,7 @@
         <v>19</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2">
         <v>45897</v>
@@ -4050,13 +4324,13 @@
         <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -4073,20 +4347,40 @@
         <v>53</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2">
+        <v>45897</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="2">
         <v>45898</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="F46" s="2"/>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
@@ -4096,43 +4390,23 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
@@ -4148,7 +4422,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F49" s="2">
         <v>45919</v>
@@ -4171,7 +4445,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F50" s="2">
         <v>45919</v>
@@ -4194,7 +4468,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F51" s="2">
         <v>45919</v>
@@ -4214,10 +4488,10 @@
         <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" s="2">
         <v>45919</v>
@@ -4237,10 +4511,10 @@
         <v>158</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F53" s="2">
         <v>45919</v>
@@ -4263,7 +4537,7 @@
         <v>19</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" s="2">
         <v>45919</v>
@@ -4285,11 +4559,11 @@
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>230</v>
+      <c r="E55" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F55" s="2">
-        <v>45930</v>
+        <v>45919</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>13</v>
@@ -4306,10 +4580,10 @@
         <v>158</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F56" s="2">
         <v>45919</v>
@@ -4329,20 +4603,40 @@
         <v>158</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F57" s="2">
-        <v>45938</v>
+        <v>45930</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="F58" s="2"/>
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
@@ -4352,43 +4646,23 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F59" s="2">
-        <v>45919</v>
+        <v>45938</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
@@ -4404,7 +4678,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2">
         <v>45919</v>
@@ -4427,7 +4701,7 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F62" s="2">
         <v>45919</v>
@@ -4450,7 +4724,7 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F63" s="2">
         <v>45919</v>
@@ -4470,10 +4744,10 @@
         <v>162</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2">
         <v>45919</v>
@@ -4493,10 +4767,10 @@
         <v>162</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2">
         <v>45919</v>
@@ -4519,7 +4793,7 @@
         <v>19</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2">
         <v>45919</v>
@@ -4539,10 +4813,10 @@
         <v>162</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2">
         <v>45919</v>
@@ -4562,18 +4836,40 @@
         <v>162</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F68" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45919</v>
+      </c>
       <c r="G68" s="1" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="F69" s="2"/>
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
@@ -4583,43 +4879,21 @@
         <v>16</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="2">
-        <v>45919</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="1" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
@@ -4635,7 +4909,7 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F72" s="2">
         <v>45919</v>
@@ -4658,7 +4932,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F73" s="2">
         <v>45919</v>
@@ -4681,7 +4955,7 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2">
         <v>45919</v>
@@ -4701,10 +4975,10 @@
         <v>163</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2">
         <v>45919</v>
@@ -4724,10 +4998,10 @@
         <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2">
         <v>45919</v>
@@ -4750,7 +5024,7 @@
         <v>19</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="2">
         <v>45919</v>
@@ -4772,11 +5046,11 @@
       <c r="D78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>230</v>
+      <c r="E78" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F78" s="2">
-        <v>45930</v>
+        <v>45919</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>13</v>
@@ -4793,10 +5067,10 @@
         <v>163</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2">
         <v>45919</v>
@@ -4816,20 +5090,40 @@
         <v>163</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F80" s="2">
+        <v>45930</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="2">
         <v>45919</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="F81" s="2"/>
+      <c r="G81" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
@@ -4839,43 +5133,23 @@
         <v>16</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F83" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
@@ -4891,7 +5165,7 @@
         <v>18</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2">
         <v>45911</v>
@@ -4914,7 +5188,7 @@
         <v>18</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F85" s="2">
         <v>45911</v>
@@ -4937,7 +5211,7 @@
         <v>18</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F86" s="2">
         <v>45911</v>
@@ -4957,10 +5231,10 @@
         <v>79</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F87" s="2">
         <v>45911</v>
@@ -4980,10 +5254,10 @@
         <v>79</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2">
         <v>45911</v>
@@ -5006,7 +5280,7 @@
         <v>19</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2">
         <v>45911</v>
@@ -5026,10 +5300,10 @@
         <v>79</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2">
         <v>45911</v>
@@ -5049,72 +5323,72 @@
         <v>79</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F93" s="2">
         <v>45938</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G93" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="F93" s="2"/>
-    </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F94" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F95" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
@@ -5130,7 +5404,7 @@
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2">
         <v>45919</v>
@@ -5153,7 +5427,7 @@
         <v>18</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F97" s="2">
         <v>45919</v>
@@ -5176,7 +5450,7 @@
         <v>18</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F98" s="2">
         <v>45919</v>
@@ -5196,10 +5470,10 @@
         <v>153</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F99" s="2">
         <v>45919</v>
@@ -5219,10 +5493,10 @@
         <v>153</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F100" s="2">
         <v>45919</v>
@@ -5245,7 +5519,7 @@
         <v>19</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2">
         <v>45919</v>
@@ -5267,11 +5541,11 @@
       <c r="D102" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>230</v>
+      <c r="E102" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F102" s="2">
-        <v>45930</v>
+        <v>45919</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>13</v>
@@ -5288,10 +5562,10 @@
         <v>153</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2">
         <v>45919</v>
@@ -5311,20 +5585,40 @@
         <v>153</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F104" s="2">
+        <v>45930</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F105" s="2">
         <v>45919</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="F105" s="2"/>
+      <c r="G105" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
@@ -5334,13 +5628,13 @@
         <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F106" s="2">
         <v>45919</v>
@@ -5350,27 +5644,7 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F107" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
@@ -5386,7 +5660,7 @@
         <v>18</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F108" s="2">
         <v>45919</v>
@@ -5409,7 +5683,7 @@
         <v>18</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F109" s="2">
         <v>45919</v>
@@ -5432,7 +5706,7 @@
         <v>18</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2">
         <v>45919</v>
@@ -5452,10 +5726,10 @@
         <v>231</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2">
         <v>45919</v>
@@ -5475,10 +5749,10 @@
         <v>231</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F112" s="2">
         <v>45919</v>
@@ -5501,7 +5775,7 @@
         <v>19</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F113" s="2">
         <v>45919</v>
@@ -5523,11 +5797,11 @@
       <c r="D114" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="8" t="s">
-        <v>230</v>
+      <c r="E114" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F114" s="2">
-        <v>45930</v>
+        <v>45919</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>13</v>
@@ -5544,10 +5818,10 @@
         <v>231</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F115" s="2">
         <v>45919</v>
@@ -5567,20 +5841,40 @@
         <v>231</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="F116" s="2">
+        <v>45930</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F117" s="2">
         <v>45919</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="F117" s="2"/>
+      <c r="G117" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
@@ -5590,43 +5884,23 @@
         <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F118" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F119" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
@@ -5642,7 +5916,7 @@
         <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F120" s="2">
         <v>45912</v>
@@ -5665,7 +5939,7 @@
         <v>18</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="F121" s="2">
         <v>45912</v>
@@ -5688,7 +5962,7 @@
         <v>18</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F122" s="2">
         <v>45912</v>
@@ -5708,10 +5982,10 @@
         <v>111</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F123" s="2">
         <v>45912</v>
@@ -5731,10 +6005,10 @@
         <v>111</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F124" s="2">
         <v>45912</v>
@@ -5757,7 +6031,7 @@
         <v>19</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F125" s="2">
         <v>45912</v>
@@ -5780,7 +6054,7 @@
         <v>19</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F126" s="2">
         <v>45912</v>
@@ -5803,7 +6077,7 @@
         <v>19</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F127" s="2">
         <v>45912</v>
@@ -5813,62 +6087,62 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="F128" s="2"/>
+      <c r="A128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F128" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="6"/>
+      <c r="A129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F129" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F130" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F131" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
@@ -5881,10 +6155,10 @@
         <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2">
         <v>45898</v>
@@ -5904,10 +6178,10 @@
         <v>12</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2">
         <v>45898</v>
@@ -5917,29 +6191,43 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="4"/>
+      <c r="A134" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F134" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2">
         <v>45898</v>
@@ -5949,27 +6237,13 @@
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F136" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
@@ -5982,10 +6256,10 @@
         <v>12</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2">
         <v>45898</v>
@@ -6005,10 +6279,10 @@
         <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F138" s="2">
         <v>45898</v>
@@ -6031,7 +6305,7 @@
         <v>19</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F139" s="2">
         <v>45898</v>
@@ -6054,7 +6328,7 @@
         <v>19</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F140" s="2">
         <v>45898</v>
@@ -6077,7 +6351,7 @@
         <v>19</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F141" s="2">
         <v>45898</v>
@@ -6100,7 +6374,7 @@
         <v>19</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F142" s="2">
         <v>45898</v>
@@ -6123,7 +6397,7 @@
         <v>19</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F143" s="2">
         <v>45898</v>
@@ -6146,7 +6420,7 @@
         <v>19</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F144" s="2">
         <v>45898</v>
@@ -6169,7 +6443,13 @@
         <v>19</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6186,7 +6466,13 @@
         <v>19</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="F146" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -6203,13 +6489,7 @@
         <v>19</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F147" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -6226,13 +6506,7 @@
         <v>19</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F148" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -6249,7 +6523,7 @@
         <v>19</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F149" s="2">
         <v>45898</v>
@@ -6272,7 +6546,7 @@
         <v>19</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F150" s="2">
         <v>45898</v>
@@ -6295,10 +6569,10 @@
         <v>19</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F151" s="2">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>13</v>
@@ -6318,17 +6592,37 @@
         <v>19</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F152" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F153" s="2">
         <v>45911</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="F153" s="2"/>
+      <c r="G153" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1" t="s">
@@ -6340,10 +6634,18 @@
       <c r="C154" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F154" s="2"/>
+      <c r="D154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="155" spans="1:7">
       <c r="F155" s="2"/>
@@ -6356,38 +6658,15 @@
         <v>59</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F157" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1" t="s">
@@ -6400,17 +6679,12 @@
         <v>53</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F158" s="2">
-        <v>45898</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1" t="s">
@@ -6423,10 +6697,10 @@
         <v>53</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F159" s="2">
         <v>45898</v>
@@ -6446,15 +6720,40 @@
         <v>53</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F160" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="F161" s="2"/>
+      <c r="A161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F161" s="2">
+        <v>45898</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
@@ -6464,20 +6763,15 @@
         <v>59</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F162" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:7">
       <c r="F163" s="2"/>
@@ -6490,43 +6784,23 @@
         <v>59</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="F164" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F165" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
@@ -6539,10 +6813,10 @@
         <v>162</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F166" s="2">
         <v>45911</v>
@@ -6565,7 +6839,7 @@
         <v>19</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F167" s="2">
         <v>45911</v>
@@ -6585,10 +6859,10 @@
         <v>162</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F168" s="2">
         <v>45911</v>
@@ -6608,18 +6882,40 @@
         <v>162</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F169" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="F169" s="2">
+        <v>45911</v>
+      </c>
       <c r="G169" s="1" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="F170" s="2"/>
+      <c r="A170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F170" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
@@ -6629,19 +6925,17 @@
         <v>59</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F171" s="2">
-        <v>45919</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F171" s="2"/>
       <c r="G171" s="1" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6655,43 +6949,23 @@
         <v>59</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="F173" s="2">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F174" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
@@ -6704,10 +6978,10 @@
         <v>79</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F175" s="2">
         <v>45911</v>
@@ -6730,7 +7004,7 @@
         <v>19</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F176" s="2">
         <v>45911</v>
@@ -6750,10 +7024,10 @@
         <v>79</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F177" s="2">
         <v>45911</v>
@@ -6773,18 +7047,40 @@
         <v>79</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F178" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="F178" s="2">
+        <v>45911</v>
+      </c>
       <c r="G178" s="1" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="F179" s="2"/>
+      <c r="A179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F179" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
@@ -6794,43 +7090,21 @@
         <v>59</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F180" s="2">
-        <v>45919</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F180" s="2"/>
       <c r="G180" s="1" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F181" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
@@ -6843,10 +7117,10 @@
         <v>153</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F182" s="2">
         <v>45919</v>
@@ -6869,7 +7143,7 @@
         <v>19</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F183" s="2">
         <v>45919</v>
@@ -6877,7 +7151,6 @@
       <c r="G183" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H183" s="8"/>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
@@ -6890,10 +7163,10 @@
         <v>153</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F184" s="2">
         <v>45919</v>
@@ -6913,10 +7186,10 @@
         <v>153</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F185" s="2">
         <v>45919</v>
@@ -6924,9 +7197,30 @@
       <c r="G185" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H185" s="8"/>
     </row>
     <row r="186" spans="1:8">
-      <c r="F186" s="2"/>
+      <c r="A186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F186" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
@@ -6936,43 +7230,23 @@
         <v>59</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="F187" s="2">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F188" s="2">
-        <v>45912</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
@@ -6988,7 +7262,7 @@
         <v>18</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F189" s="2">
         <v>45912</v>
@@ -7011,7 +7285,7 @@
         <v>18</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F190" s="2">
         <v>45912</v>
@@ -7034,7 +7308,7 @@
         <v>18</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F191" s="2">
         <v>45912</v>
@@ -7054,10 +7328,10 @@
         <v>111</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F192" s="2">
         <v>45912</v>
@@ -7077,10 +7351,10 @@
         <v>111</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F193" s="2">
         <v>45912</v>
@@ -7103,7 +7377,7 @@
         <v>19</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F194" s="2">
         <v>45912</v>
@@ -7126,7 +7400,7 @@
         <v>19</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F195" s="2">
         <v>45912</v>
@@ -7146,12 +7420,17 @@
         <v>111</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F196" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="F196" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1" t="s">
@@ -7164,70 +7443,65 @@
         <v>111</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F197" s="2">
+        <v>45912</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="F198" s="2"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="4"/>
+      <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F200" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F201" s="2">
-        <v>45911</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="4"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1" t="s">
@@ -7240,10 +7514,10 @@
         <v>12</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F202" s="2">
         <v>45911</v>
@@ -7263,10 +7537,10 @@
         <v>12</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F203" s="2">
         <v>45911</v>
@@ -7289,7 +7563,7 @@
         <v>19</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="F204" s="2">
         <v>45911</v>
@@ -7312,7 +7586,7 @@
         <v>19</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F205" s="2">
         <v>45911</v>
@@ -7322,59 +7596,59 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="4"/>
+      <c r="A206" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F206" s="2">
+        <v>45911</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F207" s="2">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F208" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="4"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1" t="s">
@@ -7384,13 +7658,13 @@
         <v>124</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F209" s="2">
         <v>45917</v>
@@ -7430,13 +7704,13 @@
         <v>124</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F211" s="2">
         <v>45917</v>
@@ -7476,13 +7750,13 @@
         <v>124</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F213" s="2">
         <v>45917</v>
@@ -7522,16 +7796,16 @@
         <v>124</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F215" s="2">
-        <v>45938</v>
+        <v>45917</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>13</v>
@@ -7554,7 +7828,7 @@
         <v>126</v>
       </c>
       <c r="F216" s="2">
-        <v>45938</v>
+        <v>45917</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>13</v>
@@ -7568,16 +7842,16 @@
         <v>124</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F217" s="2">
-        <v>45917</v>
+        <v>45938</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>13</v>
@@ -7600,7 +7874,7 @@
         <v>126</v>
       </c>
       <c r="F218" s="2">
-        <v>45917</v>
+        <v>45938</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>13</v>
@@ -7614,13 +7888,13 @@
         <v>124</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="F219" s="2">
         <v>45917</v>
@@ -7640,10 +7914,10 @@
         <v>12</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F220" s="2">
         <v>45917</v>
@@ -7653,65 +7927,85 @@
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="F221" s="2"/>
+      <c r="A221" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F221" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="4"/>
+      <c r="A222" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F222" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B223" s="1" t="s">
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E223" s="1" t="s">
+      <c r="D225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F223" s="2">
+      <c r="F225" s="2">
         <v>45917</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F224" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="F225" s="2"/>
+      <c r="G225" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
@@ -7724,10 +8018,10 @@
         <v>12</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F226" s="2">
         <v>45917</v>
@@ -7737,27 +8031,7 @@
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F227" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
@@ -7773,7 +8047,7 @@
         <v>19</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F228" s="2">
         <v>45917</v>
@@ -7806,42 +8080,62 @@
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="F230" s="2"/>
+      <c r="A230" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F230" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
-      <c r="E231" s="4"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="4"/>
+      <c r="A231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F231" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="232" spans="1:7">
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F233" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="4"/>
     </row>
     <row r="234" spans="1:7">
       <c r="F234" s="2"/>
@@ -7857,29 +8151,19 @@
         <v>12</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F235" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="F235" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:7">
@@ -7896,14 +8180,9 @@
         <v>19</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F237" s="2">
-        <v>45917</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
@@ -7919,17 +8198,32 @@
         <v>19</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F238" s="2">
+        <v>56</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F239" s="2">
         <v>45917</v>
       </c>
-      <c r="G238" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="F239" s="2"/>
+      <c r="G239" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
@@ -7939,46 +8233,46 @@
         <v>140</v>
       </c>
       <c r="C240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F240" s="2">
+        <v>45917</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E240" s="1" t="s">
+      <c r="D242" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F240" s="2">
+      <c r="F242" s="2">
         <v>45919</v>
       </c>
-      <c r="G240" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F241" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="F242" s="2"/>
+      <c r="G242" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1" t="s">
@@ -7988,13 +8282,13 @@
         <v>140</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F243" s="2">
         <v>45919</v>
@@ -8004,27 +8298,7 @@
       </c>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F244" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1" t="s">
@@ -8040,17 +8314,37 @@
         <v>18</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F245" s="2">
-        <v>45938</v>
+        <v>45919</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="F246" s="2"/>
+      <c r="A246" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F246" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1" t="s">
@@ -8060,98 +8354,78 @@
         <v>140</v>
       </c>
       <c r="C247" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F247" s="2">
+        <v>45938</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E247" s="1" t="s">
+      <c r="D249" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F249" s="2">
         <v>45919</v>
       </c>
-      <c r="G247" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B248" s="1" t="s">
+      <c r="G249" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E248" s="1" t="s">
+      <c r="D250" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F248" s="2">
+      <c r="F250" s="2">
         <v>45919</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="F249" s="2"/>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="F250" s="2"/>
+      <c r="G250" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="251" spans="1:7">
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F252" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F253" s="2">
-        <v>45919</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1" t="s">
@@ -8167,7 +8441,7 @@
         <v>18</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F254" s="2">
         <v>45919</v>
@@ -8177,65 +8451,65 @@
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="F255" s="2"/>
+      <c r="A255" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F255" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="256" spans="1:7">
-      <c r="F256" s="2"/>
+      <c r="A256" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F256" s="2">
+        <v>45919</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="4"/>
+      <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F258" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F259" s="2">
-        <v>45924</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="4"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
@@ -8251,7 +8525,7 @@
         <v>18</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F260" s="2">
         <v>45924</v>
@@ -8274,7 +8548,7 @@
         <v>18</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F261" s="2">
         <v>45924</v>
@@ -8297,7 +8571,7 @@
         <v>18</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F262" s="2">
         <v>45924</v>
@@ -8320,7 +8594,7 @@
         <v>18</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F263" s="2">
         <v>45924</v>
@@ -8343,7 +8617,7 @@
         <v>18</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F264" s="2">
         <v>45924</v>
@@ -8366,7 +8640,7 @@
         <v>18</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F265" s="2">
         <v>45924</v>
@@ -8389,7 +8663,7 @@
         <v>18</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F266" s="2">
         <v>45924</v>
@@ -8412,7 +8686,7 @@
         <v>18</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F267" s="2">
         <v>45924</v>
@@ -8435,7 +8709,7 @@
         <v>18</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F268" s="2">
         <v>45924</v>
@@ -8457,11 +8731,11 @@
       <c r="D269" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E269" s="10" t="s">
-        <v>190</v>
+      <c r="E269" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="F269" s="2">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>13</v>
@@ -8480,8 +8754,8 @@
       <c r="D270" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E270" s="10" t="s">
-        <v>189</v>
+      <c r="E270" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="F270" s="2">
         <v>45924</v>
@@ -8504,7 +8778,7 @@
         <v>18</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F271" s="2">
         <v>45925</v>
@@ -8527,63 +8801,63 @@
         <v>18</v>
       </c>
       <c r="E272" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F272" s="2">
+        <v>45924</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F273" s="2">
+        <v>45925</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F272" s="2">
+      <c r="F274" s="2">
         <v>45926</v>
       </c>
-      <c r="G272" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B274" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C274" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E274" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="F274" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G274" s="11" t="s">
+      <c r="G274" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B275" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D275" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E275" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F275" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G275" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="11" t="s">
@@ -8599,7 +8873,7 @@
         <v>18</v>
       </c>
       <c r="E276" s="11" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F276" s="12">
         <v>45926</v>
@@ -8622,7 +8896,7 @@
         <v>18</v>
       </c>
       <c r="E277" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F277" s="12">
         <v>45926</v>
@@ -8645,7 +8919,7 @@
         <v>18</v>
       </c>
       <c r="E278" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F278" s="12">
         <v>45926</v>
@@ -8668,7 +8942,7 @@
         <v>18</v>
       </c>
       <c r="E279" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F279" s="12">
         <v>45926</v>
@@ -8691,7 +8965,7 @@
         <v>18</v>
       </c>
       <c r="E280" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F280" s="12">
         <v>45926</v>
@@ -8714,7 +8988,7 @@
         <v>18</v>
       </c>
       <c r="E281" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F281" s="12">
         <v>45926</v>
@@ -8724,14 +8998,34 @@
       </c>
     </row>
     <row r="282" spans="1:7">
-      <c r="F282" s="2"/>
+      <c r="A282" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F282" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G282" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>12</v>
@@ -8740,7 +9034,7 @@
         <v>18</v>
       </c>
       <c r="E283" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F283" s="12">
         <v>45926</v>
@@ -8750,27 +9044,7 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B284" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C284" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D284" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E284" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F284" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G284" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="11" t="s">
@@ -8783,10 +9057,10 @@
         <v>12</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E285" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F285" s="12">
         <v>45926</v>
@@ -8806,10 +9080,10 @@
         <v>12</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E286" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F286" s="12">
         <v>45926</v>
@@ -8832,7 +9106,7 @@
         <v>19</v>
       </c>
       <c r="E287" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F287" s="12">
         <v>45926</v>
@@ -8855,7 +9129,7 @@
         <v>19</v>
       </c>
       <c r="E288" s="11" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="F288" s="12">
         <v>45926</v>
@@ -8865,23 +9139,43 @@
       </c>
     </row>
     <row r="289" spans="1:7">
-      <c r="F289" s="2"/>
+      <c r="A289" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F289" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G289" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E290" s="11" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="F290" s="12">
         <v>45926</v>
@@ -8891,27 +9185,7 @@
       </c>
     </row>
     <row r="291" spans="1:7">
-      <c r="A291" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B291" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C291" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D291" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E291" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F291" s="12">
-        <v>45926</v>
-      </c>
-      <c r="G291" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" s="11" t="s">
@@ -8927,7 +9201,7 @@
         <v>18</v>
       </c>
       <c r="E292" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F292" s="12">
         <v>45926</v>
@@ -8950,7 +9224,7 @@
         <v>18</v>
       </c>
       <c r="E293" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F293" s="12">
         <v>45926</v>
@@ -8970,10 +9244,10 @@
         <v>12</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E294" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F294" s="12">
         <v>45926</v>
@@ -8993,10 +9267,10 @@
         <v>12</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E295" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F295" s="12">
         <v>45926</v>
@@ -9019,7 +9293,7 @@
         <v>19</v>
       </c>
       <c r="E296" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F296" s="12">
         <v>45926</v>
@@ -9052,36 +9326,52 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="F298" s="2"/>
+      <c r="A298" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E298" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F298" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G298" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C299" s="1" t="s">
+      <c r="A299" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C299" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F299" s="2"/>
+      <c r="D299" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E299" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F299" s="12">
+        <v>45926</v>
+      </c>
+      <c r="G299" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:7">
@@ -9092,7 +9382,7 @@
         <v>223</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>18</v>
@@ -9107,7 +9397,7 @@
         <v>223</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>18</v>
@@ -9122,7 +9412,7 @@
         <v>223</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>18</v>
@@ -9137,20 +9427,12 @@
         <v>223</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F304" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
@@ -9160,20 +9442,12 @@
         <v>223</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E305" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F305" s="2">
-        <v>45926</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
@@ -9189,7 +9463,7 @@
         <v>19</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F306" s="2">
         <v>45926</v>
@@ -9212,7 +9486,7 @@
         <v>19</v>
       </c>
       <c r="E307" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F307" s="2">
         <v>45926</v>
@@ -9221,71 +9495,71 @@
         <v>13</v>
       </c>
     </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F308" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B309" s="13" t="s">
+      <c r="A309" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E309" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F309" s="2">
+        <v>45926</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B311" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C309" s="13" t="s">
+      <c r="C311" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D309" s="13"/>
-      <c r="E309" s="13" t="s">
+      <c r="D311" s="13"/>
+      <c r="E311" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="F309" s="13" t="s">
+      <c r="F311" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G309" s="13" t="s">
+      <c r="G311" s="13" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
-      <c r="A311" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B311" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C311" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D311" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E311" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F311" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G311" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
-      <c r="A312" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B312" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C312" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E312" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F312" s="12">
-        <v>45922</v>
-      </c>
-      <c r="G312" s="11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -9299,10 +9573,10 @@
         <v>12</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E313" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F313" s="12">
         <v>45922</v>
@@ -9322,10 +9596,10 @@
         <v>12</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E314" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F314" s="12">
         <v>45922</v>
@@ -9339,16 +9613,16 @@
         <v>2</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E315" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F315" s="12">
         <v>45922</v>
@@ -9357,49 +9631,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
-      <c r="A318" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B318" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C318" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D318" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E318" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F318" s="12">
-        <v>45931</v>
-      </c>
-      <c r="G318" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B319" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C319" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D319" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E319" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F319" s="12">
-        <v>45931</v>
-      </c>
-      <c r="G319" s="11" t="s">
+    <row r="316" spans="1:7">
+      <c r="A316" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C316" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D316" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E316" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F316" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G316" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C317" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D317" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F317" s="12">
+        <v>45922</v>
+      </c>
+      <c r="G317" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9408,21 +9682,67 @@
         <v>233</v>
       </c>
       <c r="B320" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D320" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F320" s="12">
+        <v>45931</v>
+      </c>
+      <c r="G320" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B321" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C320" s="11" t="s">
+      <c r="C321" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D321" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E321" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F321" s="12">
+        <v>45931</v>
+      </c>
+      <c r="G321" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C322" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D320" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E320" s="11" t="s">
+      <c r="D322" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E322" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F320" s="12">
+      <c r="F322" s="12">
         <v>45937</v>
       </c>
-      <c r="G320" s="11" t="s">
+      <c r="G322" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9436,8 +9756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBD3F6-96F2-4E99-B614-FF8661CA13AC}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9673,4 +9993,210 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D19091-DC4F-459F-93BB-CC496469D2D8}">
+  <dimension ref="B2:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" t="s">
+        <v>279</v>
+      </c>
+      <c r="I19" t="s">
+        <v>281</v>
+      </c>
+      <c r="J19" t="s">
+        <v>280</v>
+      </c>
+      <c r="M19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="C20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="C21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="C22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="C25" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="C26" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="C27" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="C29" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="C30" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="C31" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/terminal-api/testspec/testspec.xlsx
+++ b/terminal-api/testspec/testspec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F63A94D-0C75-4542-8E66-7F8B99B2EE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948EB593-538C-428A-A6A5-2A5DAACDC187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testspec" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="365">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -3002,6 +3002,264 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>カドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[2025-10-20 11:42:13] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:43:13] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:44:13] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:45:13] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:46:14] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:47:14] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:48:14] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:49:14] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:50:15] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:51:15] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:52:15] battery: 97 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:53:15] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:54:15] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>およそ13分で1% の減少</t>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13 分 * 100 = 1300分 = 21.6時間</t>
+    <rPh sb="3" eb="4">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[2025-10-20 11:55:16] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:56:16] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:57:16] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:58:16] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 11:59:17] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:00:17] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:01:17] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:02:17] battery: 96 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:03:18] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:04:18] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:05:18] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:06:18] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:07:18] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:08:19] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:09:19] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:10:19] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:11:19] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:12:20] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:13:20] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:14:20] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:15:20] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:16:20] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:17:21] battery: 95 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:18:21] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:19:21] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:20:21] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:21:21] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:22:22] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:23:22] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:24:22] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:25:23] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:26:23] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:27:23] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:28:23] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:29:24] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:30:24] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:31:24] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:32:24] battery: 94 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:33:25] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:34:25] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:35:25] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:36:25] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:37:25] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:38:26] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:39:26] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:40:26] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:41:26] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:42:26] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:43:27] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:44:27] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:45:27] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:46:27] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:47:28] battery: 93 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:48:28] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:49:28] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:50:28] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:51:28] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:52:29] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:53:29] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:54:29] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:55:29] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>[2025-10-20 12:56:30] battery: 92 %  ← バッテリー残量</t>
+  </si>
+  <si>
+    <t>およそ10分で1% の減少</t>
+    <rPh sb="5" eb="6">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3431,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -9997,10 +10255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D19091-DC4F-459F-93BB-CC496469D2D8}">
-  <dimension ref="B2:M42"/>
+  <dimension ref="B2:Q117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10055,144 +10313,541 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:3">
       <c r="B17" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:3">
       <c r="B18" s="15"/>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>278</v>
       </c>
-      <c r="C19" t="s">
-        <v>279</v>
-      </c>
-      <c r="I19" t="s">
-        <v>281</v>
-      </c>
-      <c r="J19" t="s">
-        <v>280</v>
-      </c>
-      <c r="M19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
       <c r="C20" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:3">
       <c r="C24" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:3">
       <c r="C25" s="16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:3">
       <c r="C26" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:3">
       <c r="C27" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:3">
       <c r="C28" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:3">
       <c r="C29" s="16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:3">
       <c r="C30" s="16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:3">
       <c r="C31" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:3">
       <c r="C32" s="16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:17">
       <c r="C33" s="16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:17">
       <c r="C34" s="16" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:17">
       <c r="C35" s="16" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:17">
       <c r="C36" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:17">
       <c r="C37" s="16" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:17">
       <c r="C38" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:17">
       <c r="C39" s="16" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="40" spans="3:3">
+      <c r="I39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" t="s">
+        <v>281</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17">
       <c r="C40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:17">
       <c r="C41" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:17">
       <c r="C42" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17">
+      <c r="C43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17">
+      <c r="C44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17">
+      <c r="C45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17">
+      <c r="C46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17">
+      <c r="C47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17">
+      <c r="C48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17">
+      <c r="C49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17">
+      <c r="C50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17">
+      <c r="C51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17">
+      <c r="C52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17">
+      <c r="C53" t="s">
+        <v>297</v>
+      </c>
+      <c r="I53" t="s">
+        <v>300</v>
+      </c>
+      <c r="M53" t="s">
+        <v>281</v>
+      </c>
+      <c r="N53" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17">
+      <c r="C54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17">
+      <c r="C55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17">
+      <c r="C56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17">
+      <c r="C57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17">
+      <c r="C58" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17">
+      <c r="C59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17">
+      <c r="C60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17">
+      <c r="C61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17">
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17">
+      <c r="C63" t="s">
+        <v>309</v>
+      </c>
+      <c r="I63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17">
+      <c r="C64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9">
+      <c r="C66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9">
+      <c r="C69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9">
+      <c r="C71" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="C72" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="C73" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="C74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78" t="s">
+        <v>324</v>
+      </c>
+      <c r="I78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="C79" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="C81" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9">
+      <c r="C84" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9">
+      <c r="C85" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="C86" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9">
+      <c r="C87" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9">
+      <c r="C88" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9">
+      <c r="C89" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9">
+      <c r="C90" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9">
+      <c r="C91" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9">
+      <c r="C92" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9">
+      <c r="C93" t="s">
+        <v>339</v>
+      </c>
+      <c r="I93" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9">
+      <c r="C94" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9">
+      <c r="C95" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9">
+      <c r="C96" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9">
+      <c r="C97" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9">
+      <c r="C98" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9">
+      <c r="C99" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9">
+      <c r="C100" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9">
+      <c r="C101" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9">
+      <c r="C102" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9">
+      <c r="C103" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9">
+      <c r="C104" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9">
+      <c r="C105" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9">
+      <c r="C106" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9">
+      <c r="C107" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9">
+      <c r="C108" t="s">
+        <v>354</v>
+      </c>
+      <c r="I108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9">
+      <c r="C109" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9">
+      <c r="C110" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9">
+      <c r="C111" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9">
+      <c r="C112" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
